--- a/src/test/resources/test-suites/export/thirdXlPort2Test/template.xlsx
+++ b/src/test/resources/test-suites/export/thirdXlPort2Test/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirsten/Development/molnify-xlport/src/test/resources/test-suites/export/thirdXlPort2Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\peter\repos\xlport\src\test\resources\test-suites\export\thirdXlPort2Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E092E8-E09F-104A-A1E5-B1C512A424F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F94033D-F675-4C75-B993-DEF175C77902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="6180" windowWidth="25600" windowHeight="14020" activeTab="2" xr2:uid="{CF41F8A1-61A1-4F07-9B27-8210A5435265}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" activeTab="4" xr2:uid="{CF41F8A1-61A1-4F07-9B27-8210A5435265}"/>
   </bookViews>
   <sheets>
     <sheet name="API Call" sheetId="3" r:id="rId1"/>
@@ -258,9 +258,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
@@ -278,6 +275,9 @@
     <dxf>
       <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -302,8 +302,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B3089761-E883-8845-99A1-499478A9494F}" name="Action"/>
     <tableColumn id="2" xr3:uid="{926B4FFF-2A3D-044F-A579-B055C6C84160}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{DA88F118-ADDF-F24F-BBCD-32FD65F3F00A}" name="Owner" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{F6881E67-7EED-914E-A836-9EA430A7A825}" name="Deadline" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DA88F118-ADDF-F24F-BBCD-32FD65F3F00A}" name="Owner" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F6881E67-7EED-914E-A836-9EA430A7A825}" name="Deadline" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -315,13 +315,13 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{78B4150A-F34D-4504-86A1-00C85BBA14D5}" name="Id"/>
     <tableColumn id="2" xr3:uid="{7E6395F3-F107-4CBE-B24F-DC1F5CAB48A3}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{9B10906E-4748-4B70-B6BB-DA4BF78251F7}" name="StatusId" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2BE7BB35-0361-4205-8853-3F2B63444F1E}" name="SavingsPotential" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C4C65533-21E0-44A1-A922-72D16EBE0502}" name="Achievement" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9B10906E-4748-4B70-B6BB-DA4BF78251F7}" name="StatusId" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2BE7BB35-0361-4205-8853-3F2B63444F1E}" name="SavingsPotential" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C4C65533-21E0-44A1-A922-72D16EBE0502}" name="Achievement" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{39002EFF-53F6-4A85-9C78-0A9A8645DD7E}" name="IsComplete"/>
-    <tableColumn id="9" xr3:uid="{F47C2112-1237-4BC9-9F7C-43E301659082}" name="Date" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F47C2112-1237-4BC9-9F7C-43E301659082}" name="Date" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{80EE4AA1-9140-4365-AF9F-8212F9362C5E}" name="Integer"/>
-    <tableColumn id="6" xr3:uid="{2915F3FA-81E5-43C9-BFA5-B987179CEE8A}" name="Calculated column" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2915F3FA-81E5-43C9-BFA5-B987179CEE8A}" name="Calculated column" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -350,9 +350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +390,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -496,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -638,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,12 +653,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="121.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="380" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -677,48 +677,48 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -734,21 +734,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.83203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="12" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,7 +758,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -794,7 +794,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -808,7 +808,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -847,9 +847,9 @@
       <selection activeCell="I6" sqref="A4:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -891,21 +891,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="G4" s="8"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="G5" s="8"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
@@ -925,13 +925,13 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -985,15 +985,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FFEF7BA7E574A46AFB74A56224B0982" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52864cb1d85b36b33cfb7afe4e9ef98d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72b4710f-9dac-42ee-90a5-eb867dbd68a1" xmlns:ns3="23c7b6b5-bdb0-4ac9-8e3d-579e161add45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c21c5333fca5eb86a4b0907462b52821" ns2:_="" ns3:_="">
     <xsd:import namespace="72b4710f-9dac-42ee-90a5-eb867dbd68a1"/>
@@ -1164,6 +1155,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCCBF7E0-111D-410E-B77E-B45DFE4B5E1E}">
   <ds:schemaRefs>
@@ -1182,14 +1182,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605D215D-855A-46D3-AF6E-D5A3499E903D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E917516-6907-4B03-AE45-2F84105D280F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1206,4 +1198,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605D215D-855A-46D3-AF6E-D5A3499E903D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>